--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16555AA-AC92-46AE-8D59-D9C4D26A3B6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F758DC76-D5EB-421E-9162-7A53CC82DCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="heaters" sheetId="1" r:id="rId1"/>
+    <sheet name="electric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Q</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>N</t>
   </si>
@@ -56,6 +54,12 @@
   </si>
   <si>
     <t>KPD</t>
+  </si>
+  <si>
+    <t>Qw</t>
+  </si>
+  <si>
+    <t>Qg</t>
   </si>
 </sst>
 </file>
@@ -184,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,73 +466,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1796875" style="2"/>
+    <col min="2" max="2" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5800B874-BE10-4A37-A258-ED0172482953}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F758DC76-D5EB-421E-9162-7A53CC82DCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
     <sheet name="electric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="152511" iterateCount="10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>N</t>
   </si>
@@ -60,12 +59,18 @@
   </si>
   <si>
     <t>Qg</t>
+  </si>
+  <si>
+    <t>GTU</t>
+  </si>
+  <si>
+    <t>DK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,20 +470,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -490,54 +496,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5800B874-BE10-4A37-A258-ED0172482953}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -546,62 +553,66 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBD1FAF-E1F6-4799-9929-A8E83FE2B908}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>N</t>
   </si>
@@ -65,12 +66,18 @@
   </si>
   <si>
     <t>DK</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>KPDm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,7 +477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -534,85 +541,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDA8A49-4AA3-4EAB-BFD8-D5DF47A7A6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
     <sheet name="electric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateCount="10"/>
+  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>N</t>
   </si>
@@ -65,12 +74,27 @@
   </si>
   <si>
     <t>DK</t>
+  </si>
+  <si>
+    <t>Turbine</t>
+  </si>
+  <si>
+    <t>Tots1</t>
+  </si>
+  <si>
+    <t>Tots2</t>
+  </si>
+  <si>
+    <t>Tots3</t>
+  </si>
+  <si>
+    <t>Tots4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,21 +494,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="9.1796875" style="2"/>
+    <col min="2" max="2" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -496,55 +520,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -553,66 +577,73 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDA8A49-4AA3-4EAB-BFD8-D5DF47A7A6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF93BC7-71C6-4093-9C14-546A9640250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -562,8 +562,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF93BC7-71C6-4093-9C14-546A9640250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBD1FAF-E1F6-4799-9929-A8E83FE2B908}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
     <sheet name="electric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="152511" iterateCount="10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>N</t>
   </si>
@@ -76,19 +68,10 @@
     <t>DK</t>
   </si>
   <si>
-    <t>Turbine</t>
-  </si>
-  <si>
-    <t>Tots1</t>
-  </si>
-  <si>
-    <t>Tots2</t>
-  </si>
-  <si>
-    <t>Tots3</t>
-  </si>
-  <si>
-    <t>Tots4</t>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>KPDm</t>
   </si>
 </sst>
 </file>
@@ -217,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,16 +482,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -520,38 +503,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -560,90 +543,89 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBD1FAF-E1F6-4799-9929-A8E83FE2B908}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AF7E8-AB82-479B-B71D-5696C99D856F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>N</t>
   </si>
@@ -72,16 +72,47 @@
   </si>
   <si>
     <t>KPDm</t>
+  </si>
+  <si>
+    <t>Turbine</t>
+  </si>
+  <si>
+    <t>Tots1</t>
+  </si>
+  <si>
+    <t>Tots2</t>
+  </si>
+  <si>
+    <t>Tots3</t>
+  </si>
+  <si>
+    <t>Tots4</t>
+  </si>
+  <si>
+    <t>KN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -198,9 +229,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,13 +519,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="9.1796875" style="2"/>
+    <col min="2" max="2" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -503,38 +537,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -546,12 +580,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -566,69 +600,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AF7E8-AB82-479B-B71D-5696C99D856F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EAE390-0228-4055-A62E-764524E8E471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>N</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>KN</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>OD</t>
   </si>
 </sst>
 </file>
@@ -513,10 +522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,8 +576,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -579,8 +601,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EAE390-0228-4055-A62E-764524E8E471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAA6E03-5B2E-4B74-95CD-8F8A28D481B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
     <sheet name="electric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateCount="10"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>N</t>
   </si>
@@ -99,13 +99,16 @@
   </si>
   <si>
     <t>OD</t>
+  </si>
+  <si>
+    <t>ASW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,7 +246,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,19 +525,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -546,49 +549,54 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="5" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="6" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -605,9 +613,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -622,78 +630,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAA6E03-5B2E-4B74-95CD-8F8A28D481B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E307D1-E1F7-4495-9F33-DE75FEB46163}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
     <sheet name="electric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>N</t>
   </si>
@@ -102,13 +102,16 @@
   </si>
   <si>
     <t>ASW</t>
+  </si>
+  <si>
+    <t>Strans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,19 +528,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -549,54 +552,59 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -613,9 +621,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -630,78 +638,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E307D1-E1F7-4495-9F33-DE75FEB46163}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB0601-30C5-491E-A690-FF2539B24A27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>N</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Strans</t>
+  </si>
+  <si>
+    <t>Reformer</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,6 +608,11 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAA6E03-5B2E-4B74-95CD-8F8A28D481B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB0601-30C5-491E-A690-FF2539B24A27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
     <sheet name="electric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>N</t>
   </si>
@@ -102,13 +102,19 @@
   </si>
   <si>
     <t>ASW</t>
+  </si>
+  <si>
+    <t>Strans</t>
+  </si>
+  <si>
+    <t>Reformer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,19 +531,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -549,54 +555,64 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -613,9 +629,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -630,78 +646,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB0601-30C5-491E-A690-FF2539B24A27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1355366C-0E50-4658-9704-E14A9A17CAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
     <sheet name="electric" sheetId="2" r:id="rId2"/>
+    <sheet name="accumulation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -108,13 +109,16 @@
   </si>
   <si>
     <t>Reformer</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,17 +537,17 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -555,62 +559,57 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="6" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -629,9 +628,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -646,82 +645,173 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABE940D-57CE-4E4E-8DFF-317B592DF748}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1355366C-0E50-4658-9704-E14A9A17CAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05881BD5-0C1D-488A-8B9C-35D1F6FF549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>REFCool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,14 +244,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -535,19 +537,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -559,59 +561,64 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:4" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -628,9 +635,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -645,78 +652,70 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>
@@ -729,13 +728,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABE940D-57CE-4E4E-8DFF-317B592DF748}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -745,7 +744,7 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -753,63 +752,47 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05881BD5-0C1D-488A-8B9C-35D1F6FF549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383036D8-04EE-4894-A27E-DE831B1CFED6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>REFCool</t>
+  </si>
+  <si>
+    <t>Strans_Qcool</t>
   </si>
 </sst>
 </file>
@@ -537,15 +540,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.7109375"/>
   </cols>
   <sheetData>
@@ -619,6 +622,11 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383036D8-04EE-4894-A27E-DE831B1CFED6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDF2F8B-BC15-401A-8F3C-2465F81AC705}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="electric" sheetId="2" r:id="rId2"/>
     <sheet name="accumulation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -114,10 +114,13 @@
     <t>T</t>
   </si>
   <si>
-    <t>REFCool</t>
-  </si>
-  <si>
-    <t>Strans_Qcool</t>
+    <t>Ref_cooler</t>
+  </si>
+  <si>
+    <t>Strans_cool</t>
+  </si>
+  <si>
+    <t>Ref_HTS</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -259,6 +262,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,7 +547,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,10 +613,16 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -626,7 +636,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDF2F8B-BC15-401A-8F3C-2465F81AC705}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7013359-0E38-4D45-9BA2-3829518D9DC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Ref_HTS</t>
+  </si>
+  <si>
+    <t>Ref_all</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,6 +640,11 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7013359-0E38-4D45-9BA2-3829518D9DC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3A778D-6EC9-45A4-AF6A-1E60929BFEA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>N</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>Ref_all</t>
+  </si>
+  <si>
+    <t>SGgtu_Qsw</t>
+  </si>
+  <si>
+    <t>SGgtu_comp</t>
+  </si>
+  <si>
+    <t>SGgtu_turb</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>PKM</t>
   </si>
 </sst>
 </file>
@@ -262,10 +277,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -547,10 +562,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,18 +611,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -625,7 +640,7 @@
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -645,6 +660,11 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -655,15 +675,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -671,78 +694,179 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -754,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABE940D-57CE-4E4E-8DFF-317B592DF748}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +892,9 @@
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -779,7 +905,15 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3A778D-6EC9-45A4-AF6A-1E60929BFEA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDDC3E8-6DB7-4A67-B887-38A72056A0AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>N</t>
   </si>
@@ -139,13 +139,16 @@
   </si>
   <si>
     <t>PKM</t>
+  </si>
+  <si>
+    <t>HTS_cooler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +169,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -280,6 +290,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +575,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,17 +671,23 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
+      <c r="A16" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -878,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABE940D-57CE-4E4E-8DFF-317B592DF748}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDDC3E8-6DB7-4A67-B887-38A72056A0AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F83D1DE-0632-4C25-9D4C-23D23822BFA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heaters" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>N</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>HTS_cooler</t>
+  </si>
+  <si>
+    <t>Qnr</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -294,6 +297,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -577,7 +581,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -895,15 +899,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABE940D-57CE-4E4E-8DFF-317B592DF748}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -914,8 +918,11 @@
       <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -923,7 +930,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -934,43 +941,43 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F83D1DE-0632-4C25-9D4C-23D23822BFA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60F19E-34F2-423F-94AA-E93FACBF9D8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,20 +160,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -188,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -259,10 +259,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -270,34 +270,78 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -579,115 +623,171 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375"/>
+    <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -701,284 +801,310 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="12"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABE940D-57CE-4E4E-8DFF-317B592DF748}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="16"/>
+    <col min="3" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="9.140625" style="17"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3">
-        <v>250</v>
-      </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
